--- a/time_efficiency_Algorithm.xlsx
+++ b/time_efficiency_Algorithm.xlsx
@@ -610,6 +610,9 @@
                 <c:pt idx="2">
                   <c:v>160047.046554492</c:v>
                 </c:pt>
+                <c:pt idx="3">
+                  <c:v>340077.05472672998</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -625,11 +628,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="227209216"/>
-        <c:axId val="198956096"/>
+        <c:axId val="220216320"/>
+        <c:axId val="182637056"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="227209216"/>
+        <c:axId val="220216320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -638,7 +641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="198956096"/>
+        <c:crossAx val="182637056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -646,7 +649,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="198956096"/>
+        <c:axId val="182637056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -657,7 +660,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="227209216"/>
+        <c:crossAx val="220216320"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1021,7 +1024,7 @@
   <dimension ref="B4:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1161,7 +1164,9 @@
       <c r="E11" s="1">
         <v>160047.046554492</v>
       </c>
-      <c r="F11" s="1"/>
+      <c r="F11" s="1">
+        <v>340077.05472672998</v>
+      </c>
     </row>
     <row r="13" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B13" t="s">

--- a/time_efficiency_Algorithm.xlsx
+++ b/time_efficiency_Algorithm.xlsx
@@ -442,16 +442,11 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Bucket</c:v>
+                  <c:v>Radix</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
-          <c:spPr>
-            <a:ln cap="sq">
-              <a:bevel/>
-            </a:ln>
-          </c:spPr>
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
@@ -482,16 +477,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.17199993133499999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.28100013733</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>15.2030000687</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>101.721000195</c:v>
+                  <c:v>0.23500013351400001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.9539999961900001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25.111000060999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>272.807999849</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -507,7 +502,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>Radix</c:v>
+                  <c:v>Bucket</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -542,16 +537,16 @@
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="4"/>
                 <c:pt idx="0">
-                  <c:v>0.23500013351400001</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1.9539999961900001</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>25.111000060999999</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>272.807999849</c:v>
+                  <c:v>1.4070000648500001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>193.00086999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>10033.23699999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>21501.721000195001</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -628,11 +623,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="220216320"/>
-        <c:axId val="182637056"/>
+        <c:axId val="220359680"/>
+        <c:axId val="210883072"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="220216320"/>
+        <c:axId val="220359680"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +636,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="182637056"/>
+        <c:crossAx val="210883072"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -649,7 +644,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="182637056"/>
+        <c:axId val="210883072"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -660,7 +655,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="220216320"/>
+        <c:crossAx val="220359680"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -721,7 +716,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="B4:F11" totalsRowShown="0">
   <autoFilter ref="B4:F11"/>
   <sortState ref="B5:F11">
-    <sortCondition ref="F4:F11"/>
+    <sortCondition ref="E4:E11"/>
   </sortState>
   <tableColumns count="5">
     <tableColumn id="1" name="Algorithm"/>
@@ -1024,7 +1019,7 @@
   <dimension ref="B4:F15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1119,36 +1114,36 @@
     </row>
     <row r="9" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B9" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="1">
-        <v>0.17199993133499999</v>
+        <v>5</v>
+      </c>
+      <c r="C9" s="4">
+        <v>0.23500013351400001</v>
       </c>
       <c r="D9" s="1">
-        <v>1.28100013733</v>
+        <v>1.9539999961900001</v>
       </c>
       <c r="E9" s="1">
-        <v>15.2030000687</v>
+        <v>25.111000060999999</v>
       </c>
       <c r="F9" s="1">
-        <v>101.721000195</v>
+        <v>272.807999849</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B10" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C10" s="4">
-        <v>0.23500013351400001</v>
+        <v>6</v>
+      </c>
+      <c r="C10" s="1">
+        <v>1.4070000648500001</v>
       </c>
       <c r="D10" s="1">
-        <v>1.9539999961900001</v>
+        <v>193.00086999999999</v>
       </c>
       <c r="E10" s="1">
-        <v>25.111000060999999</v>
+        <v>10033.23699999</v>
       </c>
       <c r="F10" s="1">
-        <v>272.807999849</v>
+        <v>21501.721000195001</v>
       </c>
     </row>
     <row r="11" spans="2:6" x14ac:dyDescent="0.3">
